--- a/P4_Audit_SEO.xlsx
+++ b/P4_Audit_SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPENCLASSROOM\P4_La_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178979A-A9EE-4992-ADB7-C225A46A1B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643493C9-149C-41E8-8A67-FC2107B201E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="530" windowWidth="22700" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="580" windowWidth="22700" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Catégorie</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Contraste bouton contact</t>
+  </si>
+  <si>
+    <t>message validation formulaire</t>
+  </si>
+  <si>
+    <t>label input formulaire</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -596,7 +602,10 @@
     </row>
     <row r="15" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -604,7 +613,10 @@
     </row>
     <row r="16" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>0</v>

--- a/P4_Audit_SEO.xlsx
+++ b/P4_Audit_SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPENCLASSROOM\P4_La_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178979A-A9EE-4992-ADB7-C225A46A1B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13CA225-C764-4E28-86EE-CE7A010B4730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="530" windowWidth="22700" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="600" windowWidth="28110" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Catégorie</t>
   </si>
@@ -81,23 +81,164 @@
     <t>Annuaires</t>
   </si>
   <si>
-    <t>Renommer les liens réseaux sociaux</t>
-  </si>
-  <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Dimensions img "citation.png et title.png"</t>
-  </si>
-  <si>
     <t>Contraste bouton contact</t>
+  </si>
+  <si>
+    <t>label input formulaire</t>
+  </si>
+  <si>
+    <t>focus sur l'ensemble du site</t>
+  </si>
+  <si>
+    <t>Certains liens renvoient à des sites douteux et pourraient être interprété comme du black hat</t>
+  </si>
+  <si>
+    <t>la langue n'est pas specifié</t>
+  </si>
+  <si>
+    <t>Specification de la langue</t>
+  </si>
+  <si>
+    <t>supression de la balise</t>
+  </si>
+  <si>
+    <t>non specifié</t>
+  </si>
+  <si>
+    <t>Il faut mettre la description du site dedans ce qui sera vu dans les résultats de recherche</t>
+  </si>
+  <si>
+    <t>non spécifié</t>
+  </si>
+  <si>
+    <t>Il faut mettre le titre du site dedans ce qui sera vu dans les résultats de recherche</t>
+  </si>
+  <si>
+    <t>&lt;div&gt; dissimulant du texte de la même couleur que le fond et de très petite taille. Est considéré comme black hat</t>
+  </si>
+  <si>
+    <t>balise obsolète</t>
+  </si>
+  <si>
+    <t>Du texte reprenant des mots clés doivent être disséminés dans le site de manière naturel</t>
+  </si>
+  <si>
+    <t>le lien de la page n'est pas explicite</t>
+  </si>
+  <si>
+    <t>Le lien doit avoir un rapport réel avec la page sur laquelle il renvoit</t>
+  </si>
+  <si>
+    <t>Hiérarchie des titres</t>
+  </si>
+  <si>
+    <t>Il faut respecter la hiéararchie des titres</t>
+  </si>
+  <si>
+    <t>Pas assez en lien avec le business</t>
+  </si>
+  <si>
+    <t>Rechercher plutôt des partenaires ayant un lien avec le site</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux</t>
+  </si>
+  <si>
+    <t>les liens ne marchent pas</t>
+  </si>
+  <si>
+    <t>s'assurer du fonctionnement des liens</t>
+  </si>
+  <si>
+    <t>image contenant du texte</t>
+  </si>
+  <si>
+    <t>à éviter pour l'accessibilité</t>
+  </si>
+  <si>
+    <t>mettre du texte à la place ou s'assurer qu'il y a bien un ALT</t>
+  </si>
+  <si>
+    <t>le ratio n'est pas assez élevé</t>
+  </si>
+  <si>
+    <t>le ratio doit respecter…........</t>
+  </si>
+  <si>
+    <t>pas de relation entre les labels et les inputs</t>
+  </si>
+  <si>
+    <t>relier chaque label à l'input correspondant</t>
+  </si>
+  <si>
+    <t>le focus n'est pas visible</t>
+  </si>
+  <si>
+    <t>penser au focus pour les personnes malvoyantes</t>
+  </si>
+  <si>
+    <t>Trop de &lt;DIV&gt;</t>
+  </si>
+  <si>
+    <t>Mauvais référencement</t>
+  </si>
+  <si>
+    <t>Utilisation de balises sémantiques</t>
+  </si>
+  <si>
+    <t>Taille des images</t>
+  </si>
+  <si>
+    <t>La taille des images créée un ralentissement au chargement du site</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>pas à jour</t>
+  </si>
+  <si>
+    <t>Faire les mises à jours</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Non optimisé mobile first</t>
+  </si>
+  <si>
+    <t>Pensé mobile first en premier car google analyse cela en premier</t>
+  </si>
+  <si>
+    <t>taille du CSS et du JS</t>
+  </si>
+  <si>
+    <t>Crée des ralentissement au chargement de la page</t>
+  </si>
+  <si>
+    <t>Minifier le code</t>
+  </si>
+  <si>
+    <t>&lt;meta name="robots" content="index, follow"&gt;</t>
+  </si>
+  <si>
+    <t>pas de balise d'indexation</t>
+  </si>
+  <si>
+    <t>rajout balise robot dans le code et optimisation balise canonique</t>
+  </si>
+  <si>
+    <t>redimensionner, attribuer un bon format et compresser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +276,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +295,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,22 +319,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -407,8 +576,9 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="31.15234375" customWidth="1"/>
     <col min="5" max="5" width="35.4609375" customWidth="1"/>
-    <col min="6" max="6" width="21.3046875" customWidth="1"/>
-    <col min="7" max="26" width="10.53515625" customWidth="1"/>
+    <col min="6" max="6" width="30.61328125" customWidth="1"/>
+    <col min="7" max="8" width="20.4609375" customWidth="1"/>
+    <col min="9" max="26" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -451,221 +621,419 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="b">
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="b">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="b">
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="b">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="b">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
